--- a/Inputdateien/Input.xlsx
+++ b/Inputdateien/Input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85327078-93CB-4FDB-887D-1FDEA9B7AA62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1567D4-D0C9-4505-B7A0-585C3DF11A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +422,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>

--- a/Inputdateien/Input.xlsx
+++ b/Inputdateien/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1567D4-D0C9-4505-B7A0-585C3DF11A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D701843-2086-437F-A738-9E22B78336D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB4CFC-4877-4FD6-BF56-167E70887CDC}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +422,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -442,18 +442,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>2.5628000000000002</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -476,18 +476,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -498,13 +498,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>5.0999999999999996</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B8" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -531,55 +531,32 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B11" s="2">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Inputdateien/Input.xlsx
+++ b/Inputdateien/Input.xlsx
@@ -8,24 +8,242 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D701843-2086-437F-A738-9E22B78336D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F60F62-608F-44CC-A099-DFEAF708D3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Fabio Frank</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E71AFEBF-949E-42C1-9140-97201CC951EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Der Eintrag in der letzten Zeile entspricht dem Streckenende!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{166B5A61-4035-44D8-8425-CF9E9FD227CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Fabio Frank:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">z. B. Tempolimit
+Auch bei Haltestellen und Ampeln eine Geschwindigkeit angeben, die NACH dem Halten gefahren werden soll.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>v ≠ 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> !</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1FBBCFF7-F9D5-44A4-90E9-308B76A8309D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ja = 1
+Nein = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{94164F7A-EEAA-4C87-A7FF-F17EB537EFDD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ja = 1
+Nein = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C43F4117-0466-4EE5-8DDE-9B1BC3076BDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ja = 1
+Nein = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{594D6C19-27DC-4AA2-8410-5959C5EAADD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fabio Frank:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Für jede Bushaltestelle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Wie viele Minuten nach Start des Umlaufs soll diese laut Fahrplan erreicht sein?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Tabelle richtig ausgefüllt?</t>
+  </si>
+  <si>
+    <t>DWPT-Abschnitt?</t>
+  </si>
+  <si>
+    <t>Ampel?</t>
+  </si>
+  <si>
+    <t>Bushaltestelle?</t>
+  </si>
   <si>
     <t>zurückgelegte Distanz [km]</t>
   </si>
@@ -33,26 +251,61 @@
     <t>Soll-Geschwindigkeit ab hier [km/h]</t>
   </si>
   <si>
-    <t>DWPT-Abschnitt?</t>
-  </si>
-  <si>
-    <t>Bushaltestelle?</t>
-  </si>
-  <si>
-    <t>Ampel?</t>
+    <t>Fahrplan [Minuten nach Start]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -64,7 +317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,15 +349,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -379,60 +677,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB4CFC-4877-4FD6-BF56-167E70887CDC}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB4CFC-4877-4FD6-BF56-167E70887CDC}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="1" t="str">
+        <f>IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(F2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Ja</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0.6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>50</v>
       </c>
       <c r="C3" s="2">
@@ -444,16 +755,21 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G9" si="0">IF(AND(E3=1,D3=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E3=1, ISBLANK(F3)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F3)), E3=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Ja</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>50</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2.5628000000000002</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -461,12 +777,17 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>50</v>
       </c>
       <c r="C5" s="2">
@@ -478,88 +799,135 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
+      <c r="F5" s="9">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>30</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ja">
+      <formula>NOT(ISERROR(SEARCH("Ja",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Nein">
+      <formula>NOT(ISERROR(SEARCH("Nein",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="F10:F528" xr:uid="{B3166ACD-7875-4911-936A-D91B06A928F4}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B1048576" xr:uid="{DA75A9D2-399C-4E98-AD39-5D22B88C110F}">
+      <formula1>0.1</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C1048576" xr:uid="{075AEA39-72A6-44F6-8970-34AC64265CAE}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D1048576" xr:uid="{7A85360B-876E-413F-8CCD-EAB9F344C6AE}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E1048576" xr:uid="{F3D42CE5-4DCA-46CD-AC39-E949FE91D027}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Inputdateien/Input.xlsx
+++ b/Inputdateien/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F60F62-608F-44CC-A099-DFEAF708D3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ECED33-4921-4078-835D-2B4270E32067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB4CFC-4877-4FD6-BF56-167E70887CDC}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,10 +741,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -757,16 +757,16 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G9" si="0">IF(AND(E3=1,D3=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E3=1, ISBLANK(F3)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F3)), E3=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f>IF(AND(E3=1,D3=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E3=1, ISBLANK(F3)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F3)), E3=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2.5628000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -779,16 +779,16 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(E4=1,D4=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E4=1, ISBLANK(F4)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F4)), E4=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>2.5628000000000002</v>
       </c>
       <c r="B5" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -797,19 +797,17 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G5:G10" si="0">IF(AND(E5=1,D5=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E5=1, ISBLANK(F5)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F5)), E5=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -821,9 +819,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>10</v>
+      </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
@@ -831,16 +831,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="B7" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -891,6 +891,28 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
@@ -905,7 +927,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="F10:F528" xr:uid="{B3166ACD-7875-4911-936A-D91B06A928F4}">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="F11:F529" xr:uid="{B3166ACD-7875-4911-936A-D91B06A928F4}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/Inputdateien/Input.xlsx
+++ b/Inputdateien/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ECED33-4921-4078-835D-2B4270E32067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D55A7E1-29B5-46C5-B155-2E7172B4CD5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB4CFC-4877-4FD6-BF56-167E70887CDC}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -741,16 +741,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -763,21 +763,23 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="B4" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
       <c r="G4" s="1" t="str">
         <f>IF(AND(E4=1,D4=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E4=1, ISBLANK(F4)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F4)), E4=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
@@ -785,7 +787,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2.5628000000000002</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
@@ -801,13 +803,13 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5:G10" si="0">IF(AND(E5=1,D5=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E5=1, ISBLANK(F5)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F5)), E5=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" ref="G5:G12" si="0">IF(AND(E5=1,D5=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E5=1, ISBLANK(F5)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(F5)), E5=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -816,14 +818,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>50</v>
@@ -843,9 +843,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>12</v>
+      </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
@@ -853,7 +855,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -875,10 +877,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>9.1</v>
+        <v>7.3</v>
       </c>
       <c r="B9" s="1">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -887,9 +889,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>12</v>
+      </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
@@ -897,22 +901,66 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B12" s="1">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
@@ -927,7 +975,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="F11:F529" xr:uid="{B3166ACD-7875-4911-936A-D91B06A928F4}">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="F13:F531" xr:uid="{B3166ACD-7875-4911-936A-D91B06A928F4}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
